--- a/input.xlsx
+++ b/input.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\marafon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\marafon\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>№</t>
   </si>
@@ -33,19 +33,34 @@
     <t>Григорий Москва</t>
   </si>
   <si>
-    <t>Кот Ковров</t>
-  </si>
-  <si>
     <t>Новичок</t>
   </si>
   <si>
     <t>Старт</t>
+  </si>
+  <si>
+    <t>Кирилл Петрозаводск</t>
+  </si>
+  <si>
+    <t>Федор Краснодар</t>
+  </si>
+  <si>
+    <t>Выпускник</t>
+  </si>
+  <si>
+    <t>Владимир Днепр</t>
+  </si>
+  <si>
+    <t>Кот Грей</t>
+  </si>
+  <si>
+    <t>Эксперт</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -357,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,10 +411,43 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
